--- a/Test Case Book.xlsx
+++ b/Test Case Book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.shell.com/personal/anisha_sharma_shell_com/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{2C27E52C-8C89-4E4B-B8FB-1119A1023050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE7F6729-1481-4049-BB5D-13F67566BA0D}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{2C27E52C-8C89-4E4B-B8FB-1119A1023050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0674828F-5132-42DE-A8E7-F14CF12FD750}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C72047F9-C032-434E-85A0-2819DB1EE9ED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="130">
   <si>
     <t>User Story</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Result</t>
-  </si>
-  <si>
     <t>Leave Processing Management</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
   </si>
   <si>
     <t>1. A list of all pending leave requests is displayed. 2. A list of all allocated leave requests is displayed. 3. Each leave request entry includes details such as Employee ID, Leave Type, Start Date, End Date, and Status. 4. The lists are accurate and up-to-date, reflecting the current status of all leave requests.</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
   <si>
     <t>TC_02</t>
@@ -507,9 +501,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -523,9 +514,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -561,6 +549,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,6 +571,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -878,16 +876,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9136A74F-D010-493C-A111-397D37881FB4}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.7265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="8.7265625" style="3"/>
-    <col min="3" max="3" width="8.7265625" style="5"/>
-    <col min="4" max="4" width="22.1796875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="4"/>
+    <col min="4" max="4" width="22.1796875" style="4" customWidth="1"/>
     <col min="5" max="5" width="26.54296875" style="3" customWidth="1"/>
     <col min="6" max="6" width="29.6328125" style="3" customWidth="1"/>
     <col min="7" max="7" width="30.90625" style="3" customWidth="1"/>
@@ -902,151 +900,138 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" ht="59.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="59.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="G3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="F4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="G4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="1:8" ht="51.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="D5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="51.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="G5" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="D6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G9" s="7"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -1055,648 +1040,580 @@
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="9" t="s">
+      <c r="B15" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="48" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="E15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="F15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="G15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="11" t="s">
+    </row>
+    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="D16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="6" t="s">
+      <c r="E16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="F16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="G16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="11" t="s">
+    </row>
+    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="D17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="6" t="s">
+      <c r="E17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="F17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="G17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="11" t="s">
+    </row>
+    <row r="18" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="D18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="48" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="6" t="s">
+      <c r="E18" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="F18" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="G18" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="11" t="s">
+    </row>
+    <row r="19" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="D19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="48" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="6" t="s">
+      <c r="E19" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="F19" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="G19" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="25" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="9" t="s">
+      <c r="D25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="D26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="F26" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="G26" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="11" t="s">
+    </row>
+    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="E27" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="F27" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="G27" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="11" t="s">
+    </row>
+    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="E28" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="F28" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="G28" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="11" t="s">
+    </row>
+    <row r="29" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="E29" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="48" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="G29" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="11" t="s">
+    </row>
+    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="E30" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="F30" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="G30" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="9" t="s">
+      <c r="D36" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+      <c r="A37" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="D37" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="F37" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="G37" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="11" t="s">
+    </row>
+    <row r="38" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="E38" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="6" t="s">
+      <c r="F38" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="G38" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F38" s="11" t="s">
+    </row>
+    <row r="39" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="E39" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="F39" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="G39" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F39" s="11" t="s">
+    </row>
+    <row r="40" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="E40" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="48" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" s="6" t="s">
+      <c r="G40" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="11" t="s">
+    </row>
+    <row r="41" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="E41" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="6" t="s">
+      <c r="F41" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="G41" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="46" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="9" t="s">
+      <c r="D46" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A47" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="48" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="D47" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" s="6" t="s">
+      <c r="F47" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="G47" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F47" s="11" t="s">
+    </row>
+    <row r="48" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A48" s="22"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="E48" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="48" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="6" t="s">
+      <c r="F48" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="G48" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F48" s="11" t="s">
+    </row>
+    <row r="49" spans="1:7" ht="48" x14ac:dyDescent="0.3">
+      <c r="A49" s="22"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="E49" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="48" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="6" t="s">
+      <c r="F49" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="G49" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F49" s="11" t="s">
+    </row>
+    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+      <c r="A50" s="22"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="E50" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F50" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" s="6" t="s">
+      <c r="G50" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E50" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F50" s="11" t="s">
+    </row>
+    <row r="51" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A51" s="22"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="E51" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F51" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="6" t="s">
+      <c r="G51" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E51" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F51" s="11" t="s">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="B56" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="s">
+      <c r="C56" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="E56" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C56" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="14" t="s">
+    </row>
+    <row r="57" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+      <c r="A57" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E56" s="13" t="s">
+      <c r="B57" s="13" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="36" x14ac:dyDescent="0.3">
-      <c r="A57" s="15" t="s">
+      <c r="C57" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="D57" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="E57" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D57" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="15"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="15"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="15"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="15"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="15"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="15"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="15"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="13"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="13"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="13"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="13"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="13"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="13"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="13"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="15"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
